--- a/socialstyrelsen/statistik-covid19-inskrivna_2021-07-22.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_2021-07-22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Delad\510-Statistik covid19\3. Vård och covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="334">
   <si>
     <t>Diabetes</t>
   </si>
@@ -1200,9 +1200,6 @@
     <t xml:space="preserve"> vecka 29 2021</t>
   </si>
   <si>
-    <t xml:space="preserve"> vecka 30 2021</t>
-  </si>
-  <si>
     <t>vecka 20 2021</t>
   </si>
   <si>
@@ -1231,9 +1228,6 @@
   </si>
   <si>
     <t>vecka 29 2021</t>
-  </si>
-  <si>
-    <t>vecka 30 2021</t>
   </si>
   <si>
     <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med 22 juli enligt rapportering till patientregistret eller frivillig särskild</t>
@@ -1594,7 +1588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2169,6 +2163,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2220,7 +2225,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2799,58 +2804,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2880,11 +2834,62 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2937,22 +2942,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="50" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2964,22 +2975,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="49" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="50" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7841,7 +7852,7 @@
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
       <c r="B4" s="205" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C4" s="206"/>
       <c r="D4" s="206"/>
@@ -7860,7 +7871,7 @@
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
       <c r="B6" s="205" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" s="206"/>
       <c r="D6" s="206"/>
@@ -8460,7 +8471,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="231" t="s">
         <v>144</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -8474,24 +8485,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="211"/>
+      <c r="B14" s="232"/>
       <c r="C14" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="208" t="s">
+      <c r="D14" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="229" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="211"/>
+      <c r="B15" s="232"/>
       <c r="C15" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="208"/>
-      <c r="E15" s="209"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="230"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="107" t="s">
@@ -8507,20 +8518,20 @@
       <c r="B17" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="217" t="s">
+      <c r="C17" s="236" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="217"/>
+      <c r="D17" s="236"/>
       <c r="E17" s="106"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="235" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="216"/>
+      <c r="D18" s="235"/>
       <c r="E18" s="106"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8737,16 +8748,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="212" t="s">
+      <c r="B39" s="233" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="214" t="s">
+      <c r="D39" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="214" t="s">
+      <c r="E39" s="234" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8754,45 +8765,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="213"/>
+      <c r="B40" s="225"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="213"/>
+      <c r="B41" s="225"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215"/>
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="213"/>
+      <c r="B42" s="225"/>
       <c r="C42" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="215"/>
-      <c r="E42" s="215"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="213"/>
+      <c r="B43" s="225"/>
       <c r="C43" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D43" s="215"/>
-      <c r="E43" s="215"/>
+      <c r="D43" s="220"/>
+      <c r="E43" s="220"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8822,22 +8833,22 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="221"/>
-      <c r="C46" s="221"/>
-      <c r="D46" s="215" t="s">
+      <c r="B46" s="219"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="215" t="s">
+      <c r="E46" s="220" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="215"/>
+      <c r="F46" s="220"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="221"/>
-      <c r="C47" s="221"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
+      <c r="B47" s="219"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8851,16 +8862,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="220" t="s">
+      <c r="B49" s="224" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="222" t="s">
+      <c r="D49" s="226" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="222" t="s">
+      <c r="E49" s="226" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8868,30 +8879,30 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="213"/>
+      <c r="B50" s="225"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="221"/>
-      <c r="E50" s="221"/>
+      <c r="D50" s="219"/>
+      <c r="E50" s="219"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="213"/>
+      <c r="B51" s="225"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="221"/>
-      <c r="E51" s="221"/>
+      <c r="D51" s="219"/>
+      <c r="E51" s="219"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="213"/>
+      <c r="B52" s="225"/>
       <c r="C52" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="221"/>
-      <c r="E52" s="221"/>
+      <c r="D52" s="219"/>
+      <c r="E52" s="219"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" ht="27">
@@ -8943,46 +8954,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="223" t="s">
+      <c r="B57" s="227" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="225" t="s">
+      <c r="D57" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="225" t="s">
+      <c r="E57" s="228" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="218"/>
+      <c r="F57" s="223"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="224"/>
+      <c r="B58" s="218"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="215"/>
-      <c r="E58" s="215"/>
-      <c r="F58" s="219"/>
+      <c r="D58" s="220"/>
+      <c r="E58" s="220"/>
+      <c r="F58" s="208"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="224"/>
+      <c r="B59" s="218"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="215"/>
-      <c r="E59" s="215"/>
-      <c r="F59" s="219"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="220"/>
+      <c r="F59" s="208"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="224"/>
+      <c r="B60" s="218"/>
       <c r="C60" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="215"/>
-      <c r="E60" s="215"/>
-      <c r="F60" s="219"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="220"/>
+      <c r="F60" s="208"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8998,22 +9009,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="224"/>
-      <c r="C62" s="221"/>
-      <c r="D62" s="215" t="s">
+      <c r="B62" s="218"/>
+      <c r="C62" s="219"/>
+      <c r="D62" s="220" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="215" t="s">
+      <c r="E62" s="220" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="219"/>
+      <c r="F62" s="208"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="224"/>
-      <c r="C63" s="221"/>
-      <c r="D63" s="215"/>
-      <c r="E63" s="215"/>
-      <c r="F63" s="219"/>
+      <c r="B63" s="218"/>
+      <c r="C63" s="219"/>
+      <c r="D63" s="220"/>
+      <c r="E63" s="220"/>
+      <c r="F63" s="208"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -9149,47 +9160,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="232" t="s">
+      <c r="B78" s="215" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="233"/>
-      <c r="D78" s="233"/>
-      <c r="E78" s="233"/>
+      <c r="C78" s="216"/>
+      <c r="D78" s="216"/>
+      <c r="E78" s="216"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="230" t="s">
+      <c r="B79" s="213" t="s">
         <v>257</v>
       </c>
-      <c r="C79" s="230"/>
-      <c r="D79" s="230"/>
+      <c r="C79" s="213"/>
+      <c r="D79" s="213"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="229" t="s">
+      <c r="C80" s="212" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="229"/>
+      <c r="D80" s="212"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C81" s="231" t="s">
+      <c r="C81" s="214" t="s">
         <v>124</v>
       </c>
-      <c r="D81" s="231"/>
+      <c r="D81" s="214"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C82" s="228" t="s">
+      <c r="C82" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="D82" s="228"/>
+      <c r="D82" s="211"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -9204,257 +9215,257 @@
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="236" t="s">
+      <c r="B86" s="222" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="236"/>
-      <c r="D86" s="236"/>
+      <c r="C86" s="222"/>
+      <c r="D86" s="222"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="226" t="s">
+      <c r="B87" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="C87" s="234" t="s">
+      <c r="C87" s="217" t="s">
         <v>202</v>
       </c>
-      <c r="D87" s="235" t="s">
+      <c r="D87" s="221" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="227"/>
-      <c r="C88" s="234"/>
-      <c r="D88" s="235"/>
+      <c r="B88" s="210"/>
+      <c r="C88" s="217"/>
+      <c r="D88" s="221"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C89" s="130">
         <v>44402</v>
       </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C90" s="130">
         <v>44398</v>
       </c>
       <c r="D90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C91" s="130">
         <v>44377</v>
       </c>
       <c r="D91" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C92" s="130">
         <v>44400</v>
       </c>
       <c r="D92" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C93" s="130">
         <v>44402</v>
       </c>
       <c r="D93" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C94" s="130">
         <v>44395</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C95" s="130">
         <v>44401</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C96" s="130">
         <v>44401</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C97" s="130">
         <v>44402</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C98" s="130">
         <v>44377</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C99" s="130">
         <v>44397</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C100" s="130">
         <v>44402</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C101" s="130">
         <v>44403</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C102" s="130">
         <v>44402</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C103" s="130">
         <v>44402</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C104" s="130">
         <v>44397</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C105" s="130">
         <v>44404</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C106" s="130">
         <v>44404</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C107" s="130">
         <v>44402</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C108" s="130">
         <v>44402</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="14.25" thickBot="1">
       <c r="B109" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C109" s="131">
         <v>44402</v>
       </c>
       <c r="D109" s="132" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="14.25" thickTop="1"/>
@@ -9463,6 +9474,26 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9477,26 +9508,6 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9709,22 +9720,22 @@
         <v>186</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C10" s="112" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E10" s="113" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G10" s="114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="30" customFormat="1">
@@ -9799,22 +9810,22 @@
         <v>6</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -10028,22 +10039,22 @@
     <row r="24" spans="1:8">
       <c r="A24" s="30"/>
       <c r="B24" s="115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C24" s="119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D24" s="116" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E24" s="80" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F24" s="116" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G24" s="81" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10051,22 +10062,22 @@
         <v>111</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C25" s="120" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10166,22 +10177,22 @@
         <v>120</v>
       </c>
       <c r="B30" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C30" s="120" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E30" s="72" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F30" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G30" s="71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10257,22 +10268,22 @@
     <row r="34" spans="1:7">
       <c r="A34" s="22"/>
       <c r="B34" s="115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C34" s="119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D34" s="115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F34" s="115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G34" s="81" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -10280,22 +10291,22 @@
         <v>126</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C35" s="120" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D35" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F35" s="70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G35" s="71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -10489,7 +10500,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="63" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B8" s="87">
         <v>69442</v>
@@ -10518,24 +10529,24 @@
         <v>0</v>
       </c>
       <c r="C9" s="135" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D9" s="137">
         <v>0</v>
       </c>
       <c r="E9" s="136" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F9" s="137">
         <v>0</v>
       </c>
       <c r="G9" s="136" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="68" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" s="89">
         <v>21602</v>
@@ -10558,7 +10569,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="68" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" s="91">
         <v>10951</v>
@@ -10581,7 +10592,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B12" s="91">
         <v>7595</v>
@@ -10604,7 +10615,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B13" s="91">
         <v>3381</v>
@@ -10627,7 +10638,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B14" s="34">
         <v>2906</v>
@@ -10650,7 +10661,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15" s="34">
         <v>2466</v>
@@ -10673,7 +10684,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B16" s="34">
         <v>2463</v>
@@ -10696,7 +10707,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B17" s="34">
         <v>2198</v>
@@ -10719,7 +10730,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B18" s="34">
         <v>1724</v>
@@ -10742,7 +10753,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B19" s="91">
         <v>1717</v>
@@ -10765,7 +10776,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B20" s="34">
         <v>1684</v>
@@ -10788,7 +10799,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B21" s="94">
         <v>1598</v>
@@ -10811,7 +10822,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B22" s="34">
         <v>1593</v>
@@ -10834,7 +10845,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B23" s="91">
         <v>1393</v>
@@ -10857,7 +10868,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B24" s="34">
         <v>1278</v>
@@ -10880,7 +10891,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B25" s="34">
         <v>1214</v>
@@ -10903,7 +10914,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" s="34">
         <v>1135</v>
@@ -10926,7 +10937,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B27" s="34">
         <v>954</v>
@@ -10949,7 +10960,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B28" s="91">
         <v>822</v>
@@ -10972,7 +10983,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B29" s="34">
         <v>494</v>
@@ -10995,7 +11006,7 @@
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1">
       <c r="A30" s="142" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B30" s="143">
         <v>274</v>
@@ -11062,7 +11073,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EU37"/>
+  <dimension ref="A1:ES37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -11097,12 +11108,12 @@
     <col min="108" max="16384" width="9.33203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:149" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:151" ht="30" customHeight="1">
+    <row r="2" spans="1:149" ht="30" customHeight="1">
       <c r="A2" s="237" t="s">
         <v>255</v>
       </c>
@@ -11115,7 +11126,7 @@
       <c r="H2" s="237"/>
       <c r="I2" s="237"/>
     </row>
-    <row r="3" spans="1:151">
+    <row r="3" spans="1:149">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -11128,11 +11139,11 @@
       <c r="J3" s="61"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:151" ht="14.25" thickBot="1">
+    <row r="4" spans="1:149" ht="14.25" thickBot="1">
       <c r="B4" s="86"/>
       <c r="C4" s="163"/>
     </row>
-    <row r="5" spans="1:151" ht="28.5" customHeight="1">
+    <row r="5" spans="1:149" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="250" t="s">
         <v>181</v>
@@ -11252,348 +11263,342 @@
       <c r="DI5" s="182"/>
       <c r="DJ5" s="182"/>
       <c r="DK5" s="194"/>
-      <c r="DL5" s="263" t="s">
+      <c r="DL5" s="254" t="s">
         <v>175</v>
       </c>
-      <c r="DM5" s="264"/>
-      <c r="DN5" s="264"/>
-      <c r="DO5" s="264"/>
-      <c r="DP5" s="264"/>
-      <c r="DQ5" s="264"/>
-      <c r="DR5" s="264"/>
-      <c r="DS5" s="264"/>
-      <c r="DT5" s="264"/>
-      <c r="DU5" s="264"/>
-      <c r="DV5" s="264"/>
-      <c r="DW5" s="264"/>
-      <c r="DX5" s="264"/>
-      <c r="DY5" s="264"/>
-      <c r="DZ5" s="264"/>
-      <c r="EA5" s="264"/>
-      <c r="EB5" s="264"/>
-      <c r="EC5" s="264"/>
-      <c r="ED5" s="264"/>
-      <c r="EE5" s="264"/>
-      <c r="EF5" s="264"/>
-      <c r="EG5" s="264"/>
-      <c r="EH5" s="264"/>
-      <c r="EI5" s="264"/>
-      <c r="EJ5" s="264"/>
-      <c r="EK5" s="264"/>
-      <c r="EL5" s="264"/>
-      <c r="EM5" s="264"/>
-      <c r="EN5" s="264"/>
-      <c r="EO5" s="264"/>
-      <c r="EP5" s="264"/>
-      <c r="EQ5" s="264"/>
-      <c r="ER5" s="182"/>
-      <c r="ES5" s="182"/>
-      <c r="ET5" s="182"/>
-      <c r="EU5" s="194"/>
+      <c r="DM5" s="255"/>
+      <c r="DN5" s="255"/>
+      <c r="DO5" s="255"/>
+      <c r="DP5" s="255"/>
+      <c r="DQ5" s="255"/>
+      <c r="DR5" s="255"/>
+      <c r="DS5" s="255"/>
+      <c r="DT5" s="255"/>
+      <c r="DU5" s="255"/>
+      <c r="DV5" s="255"/>
+      <c r="DW5" s="255"/>
+      <c r="DX5" s="255"/>
+      <c r="DY5" s="255"/>
+      <c r="DZ5" s="255"/>
+      <c r="EA5" s="255"/>
+      <c r="EB5" s="255"/>
+      <c r="EC5" s="255"/>
+      <c r="ED5" s="255"/>
+      <c r="EE5" s="255"/>
+      <c r="EF5" s="255"/>
+      <c r="EG5" s="255"/>
+      <c r="EH5" s="255"/>
+      <c r="EI5" s="255"/>
+      <c r="EJ5" s="255"/>
+      <c r="EK5" s="255"/>
+      <c r="EL5" s="255"/>
+      <c r="EM5" s="255"/>
+      <c r="EN5" s="255"/>
+      <c r="EO5" s="255"/>
+      <c r="EP5" s="255"/>
+      <c r="EQ5" s="255"/>
+      <c r="ER5" s="255"/>
+      <c r="ES5" s="270"/>
     </row>
-    <row r="6" spans="1:151" ht="13.5" customHeight="1">
-      <c r="A6" s="262"/>
-      <c r="B6" s="260"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="256" t="s">
+    <row r="6" spans="1:149" ht="13.5" customHeight="1">
+      <c r="A6" s="264"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="260" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="257"/>
-      <c r="F6" s="256" t="s">
+      <c r="E6" s="261"/>
+      <c r="F6" s="260" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="257"/>
-      <c r="H6" s="256" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="260" t="s">
         <v>172</v>
       </c>
-      <c r="I6" s="257"/>
-      <c r="J6" s="256" t="s">
+      <c r="I6" s="261"/>
+      <c r="J6" s="260" t="s">
         <v>148</v>
       </c>
-      <c r="K6" s="257"/>
-      <c r="L6" s="256" t="s">
+      <c r="K6" s="261"/>
+      <c r="L6" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="M6" s="257"/>
-      <c r="N6" s="256" t="s">
+      <c r="M6" s="261"/>
+      <c r="N6" s="260" t="s">
         <v>150</v>
       </c>
-      <c r="O6" s="257"/>
-      <c r="P6" s="256" t="s">
+      <c r="O6" s="261"/>
+      <c r="P6" s="260" t="s">
         <v>151</v>
       </c>
-      <c r="Q6" s="257"/>
-      <c r="R6" s="256" t="s">
+      <c r="Q6" s="261"/>
+      <c r="R6" s="260" t="s">
         <v>152</v>
       </c>
-      <c r="S6" s="257"/>
-      <c r="T6" s="256" t="s">
+      <c r="S6" s="261"/>
+      <c r="T6" s="260" t="s">
         <v>153</v>
       </c>
-      <c r="U6" s="257"/>
-      <c r="V6" s="256" t="s">
+      <c r="U6" s="261"/>
+      <c r="V6" s="260" t="s">
         <v>154</v>
       </c>
-      <c r="W6" s="257"/>
-      <c r="X6" s="256" t="s">
+      <c r="W6" s="261"/>
+      <c r="X6" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="Y6" s="257"/>
-      <c r="Z6" s="256" t="s">
+      <c r="Y6" s="261"/>
+      <c r="Z6" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="AA6" s="257"/>
-      <c r="AB6" s="256" t="s">
+      <c r="AA6" s="261"/>
+      <c r="AB6" s="260" t="s">
         <v>180</v>
       </c>
-      <c r="AC6" s="257"/>
-      <c r="AD6" s="256" t="s">
+      <c r="AC6" s="261"/>
+      <c r="AD6" s="260" t="s">
         <v>200</v>
       </c>
-      <c r="AE6" s="257"/>
-      <c r="AF6" s="256" t="s">
+      <c r="AE6" s="261"/>
+      <c r="AF6" s="260" t="s">
         <v>208</v>
       </c>
-      <c r="AG6" s="257"/>
-      <c r="AH6" s="256" t="s">
+      <c r="AG6" s="261"/>
+      <c r="AH6" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="AI6" s="257"/>
-      <c r="AJ6" s="256" t="s">
+      <c r="AI6" s="261"/>
+      <c r="AJ6" s="260" t="s">
         <v>218</v>
       </c>
-      <c r="AK6" s="257"/>
-      <c r="AL6" s="256" t="s">
+      <c r="AK6" s="261"/>
+      <c r="AL6" s="260" t="s">
         <v>219</v>
       </c>
-      <c r="AM6" s="257"/>
-      <c r="AN6" s="256" t="s">
+      <c r="AM6" s="261"/>
+      <c r="AN6" s="260" t="s">
         <v>220</v>
       </c>
-      <c r="AO6" s="257"/>
-      <c r="AP6" s="256" t="s">
+      <c r="AO6" s="261"/>
+      <c r="AP6" s="260" t="s">
         <v>221</v>
       </c>
-      <c r="AQ6" s="257"/>
-      <c r="AR6" s="256" t="s">
+      <c r="AQ6" s="261"/>
+      <c r="AR6" s="260" t="s">
         <v>222</v>
       </c>
-      <c r="AS6" s="257"/>
-      <c r="AT6" s="256" t="s">
+      <c r="AS6" s="261"/>
+      <c r="AT6" s="260" t="s">
         <v>223</v>
       </c>
-      <c r="AU6" s="257"/>
-      <c r="AV6" s="256" t="s">
+      <c r="AU6" s="261"/>
+      <c r="AV6" s="260" t="s">
         <v>224</v>
       </c>
-      <c r="AW6" s="257"/>
-      <c r="AX6" s="256" t="s">
+      <c r="AW6" s="261"/>
+      <c r="AX6" s="260" t="s">
         <v>225</v>
       </c>
-      <c r="AY6" s="257"/>
-      <c r="AZ6" s="256" t="s">
+      <c r="AY6" s="261"/>
+      <c r="AZ6" s="260" t="s">
         <v>226</v>
       </c>
-      <c r="BA6" s="258"/>
-      <c r="BB6" s="254" t="s">
+      <c r="BA6" s="265"/>
+      <c r="BB6" s="256" t="s">
         <v>228</v>
       </c>
-      <c r="BC6" s="259"/>
-      <c r="BD6" s="254" t="s">
+      <c r="BC6" s="266"/>
+      <c r="BD6" s="256" t="s">
         <v>229</v>
       </c>
-      <c r="BE6" s="255"/>
-      <c r="BF6" s="254" t="s">
+      <c r="BE6" s="257"/>
+      <c r="BF6" s="256" t="s">
         <v>230</v>
       </c>
-      <c r="BG6" s="255"/>
-      <c r="BH6" s="254" t="s">
+      <c r="BG6" s="257"/>
+      <c r="BH6" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="BI6" s="255"/>
-      <c r="BJ6" s="254" t="s">
+      <c r="BI6" s="257"/>
+      <c r="BJ6" s="256" t="s">
         <v>231</v>
       </c>
-      <c r="BK6" s="255"/>
-      <c r="BL6" s="254" t="s">
+      <c r="BK6" s="257"/>
+      <c r="BL6" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="BM6" s="255"/>
-      <c r="BN6" s="254" t="s">
+      <c r="BM6" s="257"/>
+      <c r="BN6" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="BO6" s="255"/>
-      <c r="BP6" s="254" t="s">
+      <c r="BO6" s="257"/>
+      <c r="BP6" s="256" t="s">
         <v>236</v>
       </c>
-      <c r="BQ6" s="255"/>
-      <c r="BR6" s="254" t="s">
+      <c r="BQ6" s="257"/>
+      <c r="BR6" s="256" t="s">
         <v>242</v>
       </c>
-      <c r="BS6" s="255"/>
-      <c r="BT6" s="254" t="s">
+      <c r="BS6" s="257"/>
+      <c r="BT6" s="256" t="s">
         <v>241</v>
       </c>
-      <c r="BU6" s="255"/>
-      <c r="BV6" s="254" t="s">
+      <c r="BU6" s="257"/>
+      <c r="BV6" s="256" t="s">
         <v>240</v>
       </c>
-      <c r="BW6" s="255"/>
-      <c r="BX6" s="254" t="s">
+      <c r="BW6" s="257"/>
+      <c r="BX6" s="256" t="s">
         <v>239</v>
       </c>
-      <c r="BY6" s="255"/>
-      <c r="BZ6" s="254" t="s">
+      <c r="BY6" s="257"/>
+      <c r="BZ6" s="256" t="s">
         <v>238</v>
       </c>
-      <c r="CA6" s="255"/>
-      <c r="CB6" s="254" t="s">
+      <c r="CA6" s="257"/>
+      <c r="CB6" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="CC6" s="255"/>
-      <c r="CD6" s="254" t="s">
+      <c r="CC6" s="257"/>
+      <c r="CD6" s="256" t="s">
         <v>244</v>
       </c>
-      <c r="CE6" s="255"/>
-      <c r="CF6" s="254" t="s">
+      <c r="CE6" s="257"/>
+      <c r="CF6" s="256" t="s">
         <v>243</v>
       </c>
-      <c r="CG6" s="255"/>
-      <c r="CH6" s="254" t="s">
+      <c r="CG6" s="257"/>
+      <c r="CH6" s="256" t="s">
         <v>245</v>
       </c>
-      <c r="CI6" s="255"/>
-      <c r="CJ6" s="254" t="s">
+      <c r="CI6" s="257"/>
+      <c r="CJ6" s="256" t="s">
         <v>246</v>
       </c>
-      <c r="CK6" s="255"/>
-      <c r="CL6" s="254" t="s">
+      <c r="CK6" s="257"/>
+      <c r="CL6" s="256" t="s">
         <v>247</v>
       </c>
-      <c r="CM6" s="255"/>
-      <c r="CN6" s="254" t="s">
+      <c r="CM6" s="257"/>
+      <c r="CN6" s="256" t="s">
         <v>248</v>
       </c>
-      <c r="CO6" s="255"/>
-      <c r="CP6" s="254" t="s">
+      <c r="CO6" s="257"/>
+      <c r="CP6" s="256" t="s">
         <v>249</v>
       </c>
-      <c r="CQ6" s="255"/>
-      <c r="CR6" s="254" t="s">
+      <c r="CQ6" s="257"/>
+      <c r="CR6" s="256" t="s">
         <v>250</v>
       </c>
-      <c r="CS6" s="255"/>
-      <c r="CT6" s="254" t="s">
+      <c r="CS6" s="257"/>
+      <c r="CT6" s="256" t="s">
         <v>251</v>
       </c>
-      <c r="CU6" s="255"/>
-      <c r="CV6" s="254" t="s">
+      <c r="CU6" s="257"/>
+      <c r="CV6" s="256" t="s">
         <v>252</v>
       </c>
-      <c r="CW6" s="255"/>
-      <c r="CX6" s="254" t="s">
+      <c r="CW6" s="257"/>
+      <c r="CX6" s="256" t="s">
         <v>253</v>
       </c>
-      <c r="CY6" s="255"/>
-      <c r="CZ6" s="254" t="s">
+      <c r="CY6" s="257"/>
+      <c r="CZ6" s="256" t="s">
         <v>258</v>
       </c>
-      <c r="DA6" s="255"/>
-      <c r="DB6" s="254" t="s">
+      <c r="DA6" s="257"/>
+      <c r="DB6" s="256" t="s">
         <v>259</v>
       </c>
-      <c r="DC6" s="255"/>
-      <c r="DD6" s="254" t="s">
+      <c r="DC6" s="257"/>
+      <c r="DD6" s="256" t="s">
         <v>270</v>
       </c>
-      <c r="DE6" s="255"/>
-      <c r="DF6" s="254" t="s">
+      <c r="DE6" s="257"/>
+      <c r="DF6" s="256" t="s">
         <v>271</v>
       </c>
-      <c r="DG6" s="255"/>
-      <c r="DH6" s="254" t="s">
+      <c r="DG6" s="257"/>
+      <c r="DH6" s="256" t="s">
         <v>272</v>
       </c>
-      <c r="DI6" s="255"/>
-      <c r="DJ6" s="254" t="s">
+      <c r="DI6" s="257"/>
+      <c r="DJ6" s="256" t="s">
         <v>273</v>
       </c>
-      <c r="DK6" s="255"/>
-      <c r="DL6" s="254" t="s">
+      <c r="DK6" s="257"/>
+      <c r="DL6" s="256" t="s">
         <v>274</v>
       </c>
-      <c r="DM6" s="255"/>
-      <c r="DN6" s="254" t="s">
+      <c r="DM6" s="257"/>
+      <c r="DN6" s="256" t="s">
         <v>275</v>
       </c>
-      <c r="DO6" s="255"/>
-      <c r="DP6" s="254" t="s">
+      <c r="DO6" s="257"/>
+      <c r="DP6" s="256" t="s">
         <v>276</v>
       </c>
-      <c r="DQ6" s="255"/>
-      <c r="DR6" s="254" t="s">
+      <c r="DQ6" s="257"/>
+      <c r="DR6" s="256" t="s">
         <v>277</v>
       </c>
-      <c r="DS6" s="255"/>
-      <c r="DT6" s="254" t="s">
+      <c r="DS6" s="257"/>
+      <c r="DT6" s="256" t="s">
         <v>278</v>
       </c>
-      <c r="DU6" s="255"/>
-      <c r="DV6" s="254" t="s">
+      <c r="DU6" s="257"/>
+      <c r="DV6" s="256" t="s">
         <v>279</v>
       </c>
-      <c r="DW6" s="255"/>
-      <c r="DX6" s="265" t="s">
+      <c r="DW6" s="257"/>
+      <c r="DX6" s="258" t="s">
         <v>281</v>
       </c>
-      <c r="DY6" s="266"/>
-      <c r="DZ6" s="254" t="s">
+      <c r="DY6" s="259"/>
+      <c r="DZ6" s="256" t="s">
         <v>283</v>
       </c>
-      <c r="EA6" s="255"/>
-      <c r="EB6" s="254" t="s">
+      <c r="EA6" s="257"/>
+      <c r="EB6" s="256" t="s">
         <v>284</v>
       </c>
-      <c r="EC6" s="255"/>
-      <c r="ED6" s="254" t="s">
+      <c r="EC6" s="257"/>
+      <c r="ED6" s="256" t="s">
         <v>285</v>
       </c>
-      <c r="EE6" s="255"/>
-      <c r="EF6" s="254" t="s">
+      <c r="EE6" s="257"/>
+      <c r="EF6" s="256" t="s">
         <v>286</v>
       </c>
-      <c r="EG6" s="255"/>
-      <c r="EH6" s="254" t="s">
+      <c r="EG6" s="257"/>
+      <c r="EH6" s="256" t="s">
         <v>287</v>
       </c>
-      <c r="EI6" s="255"/>
-      <c r="EJ6" s="254" t="s">
+      <c r="EI6" s="257"/>
+      <c r="EJ6" s="256" t="s">
         <v>288</v>
       </c>
-      <c r="EK6" s="255"/>
-      <c r="EL6" s="254" t="s">
+      <c r="EK6" s="257"/>
+      <c r="EL6" s="256" t="s">
         <v>289</v>
       </c>
-      <c r="EM6" s="255"/>
-      <c r="EN6" s="254" t="s">
+      <c r="EM6" s="257"/>
+      <c r="EN6" s="256" t="s">
         <v>290</v>
       </c>
-      <c r="EO6" s="255"/>
-      <c r="EP6" s="254" t="s">
+      <c r="EO6" s="257"/>
+      <c r="EP6" s="256" t="s">
         <v>291</v>
       </c>
-      <c r="EQ6" s="255"/>
-      <c r="ER6" s="254" t="s">
+      <c r="EQ6" s="257"/>
+      <c r="ER6" s="256" t="s">
         <v>292</v>
       </c>
-      <c r="ES6" s="255"/>
-      <c r="ET6" s="254" t="s">
-        <v>293</v>
-      </c>
-      <c r="EU6" s="255"/>
+      <c r="ES6" s="257"/>
     </row>
-    <row r="7" spans="1:151">
-      <c r="A7" s="262"/>
+    <row r="7" spans="1:149">
+      <c r="A7" s="264"/>
       <c r="B7" s="162" t="s">
         <v>5</v>
       </c>
@@ -12038,16 +12043,10 @@
       <c r="ES7" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="ET7" s="159" t="s">
-        <v>5</v>
-      </c>
-      <c r="EU7" s="159" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="8" spans="1:151">
+    <row r="8" spans="1:149">
       <c r="A8" s="158" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B8" s="101">
         <v>69442</v>
@@ -12493,14 +12492,8 @@
       <c r="ES8" s="157">
         <v>1.4400506897840001E-2</v>
       </c>
-      <c r="ET8" s="101">
-        <v>0</v>
-      </c>
-      <c r="EU8" s="157">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:151">
+    <row r="9" spans="1:149">
       <c r="A9" s="66" t="s">
         <v>129</v>
       </c>
@@ -12652,12 +12645,10 @@
       <c r="EQ9" s="153"/>
       <c r="ER9" s="65"/>
       <c r="ES9" s="153"/>
-      <c r="ET9" s="65"/>
-      <c r="EU9" s="153"/>
     </row>
-    <row r="10" spans="1:151">
+    <row r="10" spans="1:149">
       <c r="A10" s="158" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" s="101">
         <v>21602</v>
@@ -13103,16 +13094,10 @@
       <c r="ES10" s="152">
         <v>0</v>
       </c>
-      <c r="ET10" s="101">
-        <v>0</v>
-      </c>
-      <c r="EU10" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:151">
+    <row r="11" spans="1:149">
       <c r="A11" s="158" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" s="78">
         <v>10951</v>
@@ -13558,16 +13543,10 @@
       <c r="ES11" s="152">
         <v>6.3921103095609999E-2</v>
       </c>
-      <c r="ET11" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU11" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:151">
+    <row r="12" spans="1:149">
       <c r="A12" s="158" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B12" s="78">
         <v>7595</v>
@@ -13576,10 +13555,10 @@
         <v>10.9371849889116</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F12" s="78">
         <v>8</v>
@@ -13990,22 +13969,22 @@
         <v>6.5832784726789995E-2</v>
       </c>
       <c r="EL12" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM12" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN12" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO12" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP12" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ12" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER12" s="78">
         <v>0</v>
@@ -14013,16 +13992,10 @@
       <c r="ES12" s="152">
         <v>0</v>
       </c>
-      <c r="ET12" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU12" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:151">
+    <row r="13" spans="1:149">
       <c r="A13" s="158" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B13" s="78">
         <v>3381</v>
@@ -14187,10 +14160,10 @@
         <v>0.23661638568471</v>
       </c>
       <c r="BD13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE13" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF13" s="78">
         <v>7</v>
@@ -14445,16 +14418,16 @@
         <v>0.17746228926353</v>
       </c>
       <c r="EL13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM13" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO13" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP13" s="78">
         <v>0</v>
@@ -14468,16 +14441,10 @@
       <c r="ES13" s="152">
         <v>0</v>
       </c>
-      <c r="ET13" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU13" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:151">
+    <row r="14" spans="1:149">
       <c r="A14" s="158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B14" s="78">
         <v>2906</v>
@@ -14486,10 +14453,10 @@
         <v>4.1847873045131196</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F14" s="78">
         <v>9</v>
@@ -14630,16 +14597,16 @@
         <v>0.24088093599449001</v>
       </c>
       <c r="AZ14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD14" s="78">
         <v>4</v>
@@ -14654,22 +14621,22 @@
         <v>0.20646937370957</v>
       </c>
       <c r="BH14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN14" s="78">
         <v>15</v>
@@ -14900,10 +14867,10 @@
         <v>0.13764624913970999</v>
       </c>
       <c r="EL14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN14" s="78">
         <v>0</v>
@@ -14912,10 +14879,10 @@
         <v>0</v>
       </c>
       <c r="EP14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ14" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER14" s="78">
         <v>0</v>
@@ -14923,16 +14890,10 @@
       <c r="ES14" s="152">
         <v>0</v>
       </c>
-      <c r="ET14" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU14" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:151">
+    <row r="15" spans="1:149">
       <c r="A15" s="158" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15" s="78">
         <v>2466</v>
@@ -14941,10 +14902,10 @@
         <v>3.55116500100804</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F15" s="78">
         <v>10</v>
@@ -15049,28 +15010,28 @@
         <v>0.44606650446066998</v>
       </c>
       <c r="AN15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV15" s="78">
         <v>4</v>
@@ -15085,16 +15046,16 @@
         <v>0.16220600162206</v>
       </c>
       <c r="AZ15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD15" s="78">
         <v>4</v>
@@ -15109,10 +15070,10 @@
         <v>0.16220600162206</v>
       </c>
       <c r="BH15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ15" s="78">
         <v>4</v>
@@ -15343,10 +15304,10 @@
         <v>0.24330900243309</v>
       </c>
       <c r="EH15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ15" s="78">
         <v>0</v>
@@ -15367,10 +15328,10 @@
         <v>0</v>
       </c>
       <c r="EP15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ15" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER15" s="78">
         <v>0</v>
@@ -15378,16 +15339,10 @@
       <c r="ES15" s="152">
         <v>0</v>
       </c>
-      <c r="ET15" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU15" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:151">
+    <row r="16" spans="1:149">
       <c r="A16" s="158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B16" s="78">
         <v>2463</v>
@@ -15564,10 +15519,10 @@
         <v>0.44660982541616001</v>
       </c>
       <c r="BH16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI16" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ16" s="78">
         <v>7</v>
@@ -15822,10 +15777,10 @@
         <v>0.32480714575720998</v>
       </c>
       <c r="EP16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ16" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER16" s="78">
         <v>0</v>
@@ -15833,16 +15788,10 @@
       <c r="ES16" s="152">
         <v>0</v>
       </c>
-      <c r="ET16" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU16" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:151">
+    <row r="17" spans="1:149">
       <c r="A17" s="158" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B17" s="78">
         <v>2198</v>
@@ -15851,10 +15800,10 @@
         <v>3.1652314161458501</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F17" s="78">
         <v>7</v>
@@ -15971,16 +15920,16 @@
         <v>0.31847133757961998</v>
       </c>
       <c r="AR17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV17" s="78">
         <v>0</v>
@@ -15989,22 +15938,22 @@
         <v>0</v>
       </c>
       <c r="AX17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD17" s="78">
         <v>0</v>
@@ -16013,34 +15962,34 @@
         <v>0</v>
       </c>
       <c r="BF17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP17" s="78">
         <v>6</v>
@@ -16271,16 +16220,16 @@
         <v>0.22747952684257999</v>
       </c>
       <c r="EN17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ17" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER17" s="78">
         <v>0</v>
@@ -16288,16 +16237,10 @@
       <c r="ES17" s="152">
         <v>0</v>
       </c>
-      <c r="ET17" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU17" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:151">
+    <row r="18" spans="1:149">
       <c r="A18" s="158" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B18" s="78">
         <v>1724</v>
@@ -16306,16 +16249,16 @@
         <v>2.4826473891881</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H18" s="78">
         <v>15</v>
@@ -16414,22 +16357,22 @@
         <v>0.40603248259861002</v>
       </c>
       <c r="AN18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT18" s="78">
         <v>4</v>
@@ -16438,40 +16381,40 @@
         <v>0.23201856148492001</v>
       </c>
       <c r="AV18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH18" s="78">
         <v>4</v>
@@ -16480,10 +16423,10 @@
         <v>0.23201856148492001</v>
       </c>
       <c r="BJ18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL18" s="78">
         <v>0</v>
@@ -16600,10 +16543,10 @@
         <v>0.75406032482598995</v>
       </c>
       <c r="CX18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CZ18" s="78">
         <v>12</v>
@@ -16708,28 +16651,28 @@
         <v>0.40603248259861002</v>
       </c>
       <c r="EH18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO18" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP18" s="78">
         <v>0</v>
@@ -16743,16 +16686,10 @@
       <c r="ES18" s="152">
         <v>0</v>
       </c>
-      <c r="ET18" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU18" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:151">
+    <row r="19" spans="1:149">
       <c r="A19" s="158" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B19" s="78">
         <v>1717</v>
@@ -16767,10 +16704,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G19" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H19" s="78">
         <v>16</v>
@@ -16947,10 +16884,10 @@
         <v>0.29120559114735001</v>
       </c>
       <c r="BN19" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO19" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP19" s="78">
         <v>5</v>
@@ -17181,33 +17118,27 @@
         <v>0</v>
       </c>
       <c r="EN19" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EO19" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP19" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EQ19" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER19" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="ES19" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET19" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU19" s="152">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:151">
+    <row r="20" spans="1:149">
       <c r="A20" s="158" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B20" s="78">
         <v>1684</v>
@@ -17222,10 +17153,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H20" s="78">
         <v>6</v>
@@ -17366,10 +17297,10 @@
         <v>0.47505938242279999</v>
       </c>
       <c r="BB20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD20" s="78">
         <v>5</v>
@@ -17378,16 +17309,16 @@
         <v>0.29691211401424999</v>
       </c>
       <c r="BF20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ20" s="78">
         <v>9</v>
@@ -17612,16 +17543,16 @@
         <v>0.29691211401424999</v>
       </c>
       <c r="EF20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ20" s="78">
         <v>5</v>
@@ -17636,10 +17567,10 @@
         <v>0</v>
       </c>
       <c r="EN20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO20" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP20" s="78">
         <v>0</v>
@@ -17648,21 +17579,15 @@
         <v>0</v>
       </c>
       <c r="ER20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="ES20" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET20" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU20" s="152">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:151">
+    <row r="21" spans="1:149">
       <c r="A21" s="158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B21" s="78">
         <v>1598</v>
@@ -17677,10 +17602,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H21" s="78">
         <v>8</v>
@@ -17779,28 +17704,28 @@
         <v>0.37546933667083998</v>
       </c>
       <c r="AN21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV21" s="78">
         <v>4</v>
@@ -17809,16 +17734,16 @@
         <v>0.25031289111388999</v>
       </c>
       <c r="AX21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB21" s="78">
         <v>4</v>
@@ -17833,10 +17758,10 @@
         <v>0.25031289111388999</v>
       </c>
       <c r="BF21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH21" s="78">
         <v>4</v>
@@ -18055,10 +17980,10 @@
         <v>0.62578222778473003</v>
       </c>
       <c r="EB21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED21" s="78">
         <v>5</v>
@@ -18085,10 +18010,10 @@
         <v>0</v>
       </c>
       <c r="EL21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM21" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN21" s="78">
         <v>0</v>
@@ -18108,16 +18033,10 @@
       <c r="ES21" s="152">
         <v>0</v>
       </c>
-      <c r="ET21" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU21" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:151">
+    <row r="22" spans="1:149">
       <c r="A22" s="158" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B22" s="78">
         <v>1593</v>
@@ -18132,16 +18051,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J22" s="78">
         <v>10</v>
@@ -18276,16 +18195,16 @@
         <v>0.50219711236660003</v>
       </c>
       <c r="BB22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF22" s="78">
         <v>4</v>
@@ -18294,10 +18213,10 @@
         <v>0.25109855618330001</v>
       </c>
       <c r="BH22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ22" s="78">
         <v>8</v>
@@ -18318,10 +18237,10 @@
         <v>0.50219711236660003</v>
       </c>
       <c r="BP22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR22" s="78">
         <v>4</v>
@@ -18330,10 +18249,10 @@
         <v>0.25109855618330001</v>
       </c>
       <c r="BT22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV22" s="78">
         <v>9</v>
@@ -18528,10 +18447,10 @@
         <v>0.43942247332077999</v>
       </c>
       <c r="EH22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI22" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ22" s="78">
         <v>0</v>
@@ -18563,16 +18482,10 @@
       <c r="ES22" s="152">
         <v>0</v>
       </c>
-      <c r="ET22" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU22" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:151">
+    <row r="23" spans="1:149">
       <c r="A23" s="158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B23" s="78">
         <v>1393</v>
@@ -18581,10 +18494,10 @@
         <v>2.0059906108695</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F23" s="78">
         <v>5</v>
@@ -18695,10 +18608,10 @@
         <v>0.71787508973438996</v>
       </c>
       <c r="AP23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR23" s="78">
         <v>4</v>
@@ -18707,28 +18620,28 @@
         <v>0.28715003589374999</v>
       </c>
       <c r="AT23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB23" s="78">
         <v>9</v>
@@ -18737,10 +18650,10 @@
         <v>0.64608758076094996</v>
       </c>
       <c r="BD23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF23" s="78">
         <v>6</v>
@@ -18983,16 +18896,16 @@
         <v>0.28715003589374999</v>
       </c>
       <c r="EH23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK23" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL23" s="78">
         <v>0</v>
@@ -19018,16 +18931,10 @@
       <c r="ES23" s="152">
         <v>0</v>
       </c>
-      <c r="ET23" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU23" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:151">
+    <row r="24" spans="1:149">
       <c r="A24" s="158" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B24" s="78">
         <v>1278</v>
@@ -19042,10 +18949,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H24" s="78">
         <v>9</v>
@@ -19102,10 +19009,10 @@
         <v>1.7214397496087599</v>
       </c>
       <c r="Z24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AA24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB24" s="78">
         <v>15</v>
@@ -19156,28 +19063,28 @@
         <v>0.39123630672926002</v>
       </c>
       <c r="AR24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ24" s="78">
         <v>4</v>
@@ -19192,22 +19099,22 @@
         <v>0.39123630672926002</v>
       </c>
       <c r="BD24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ24" s="78">
         <v>0</v>
@@ -19216,22 +19123,22 @@
         <v>0</v>
       </c>
       <c r="BL24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR24" s="78">
         <v>4</v>
@@ -19438,51 +19345,45 @@
         <v>0.39123630672926002</v>
       </c>
       <c r="EH24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ24" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="ES24" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET24" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU24" s="152">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:151">
+    <row r="25" spans="1:149">
       <c r="A25" s="158" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B25" s="78">
         <v>1214</v>
@@ -19491,10 +19392,10 @@
         <v>1.74822153739812</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F25" s="78">
         <v>4</v>
@@ -19515,10 +19416,10 @@
         <v>0.49423393739702998</v>
       </c>
       <c r="L25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N25" s="78">
         <v>15</v>
@@ -19605,16 +19506,16 @@
         <v>0.82372322899506001</v>
       </c>
       <c r="AP25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT25" s="78">
         <v>0</v>
@@ -19623,10 +19524,10 @@
         <v>0</v>
       </c>
       <c r="AV25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX25" s="78">
         <v>5</v>
@@ -19635,10 +19536,10 @@
         <v>0.41186161449753</v>
       </c>
       <c r="AZ25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB25" s="78">
         <v>0</v>
@@ -19653,22 +19554,22 @@
         <v>0.41186161449753</v>
       </c>
       <c r="BF25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL25" s="78">
         <v>7</v>
@@ -19677,22 +19578,22 @@
         <v>0.57660626029654005</v>
       </c>
       <c r="BN25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS25" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT25" s="78">
         <v>9</v>
@@ -19928,16 +19829,10 @@
       <c r="ES25" s="152">
         <v>0</v>
       </c>
-      <c r="ET25" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU25" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:151">
+    <row r="26" spans="1:149">
       <c r="A26" s="158" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" s="78">
         <v>1135</v>
@@ -19970,10 +19865,10 @@
         <v>0.61674008810573</v>
       </c>
       <c r="L26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N26" s="78">
         <v>16</v>
@@ -20042,10 +19937,10 @@
         <v>1.14537444933921</v>
       </c>
       <c r="AJ26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL26" s="78">
         <v>5</v>
@@ -20054,22 +19949,22 @@
         <v>0.44052863436123002</v>
       </c>
       <c r="AN26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT26" s="78">
         <v>8</v>
@@ -20078,10 +19973,10 @@
         <v>0.70484581497797005</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX26" s="78">
         <v>4</v>
@@ -20090,10 +19985,10 @@
         <v>0.35242290748899002</v>
       </c>
       <c r="AZ26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB26" s="78">
         <v>0</v>
@@ -20102,10 +19997,10 @@
         <v>0</v>
       </c>
       <c r="BD26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF26" s="78">
         <v>0</v>
@@ -20126,10 +20021,10 @@
         <v>0.61674008810573</v>
       </c>
       <c r="BL26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN26" s="78">
         <v>10</v>
@@ -20336,22 +20231,22 @@
         <v>0.88105726872247003</v>
       </c>
       <c r="ED26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ26" s="78">
         <v>0</v>
@@ -20366,10 +20261,10 @@
         <v>0</v>
       </c>
       <c r="EN26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO26" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP26" s="78">
         <v>0</v>
@@ -20383,16 +20278,10 @@
       <c r="ES26" s="152">
         <v>0</v>
       </c>
-      <c r="ET26" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU26" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:151">
+    <row r="27" spans="1:149">
       <c r="A27" s="158" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B27" s="78">
         <v>954</v>
@@ -20407,10 +20296,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H27" s="78">
         <v>12</v>
@@ -20443,10 +20332,10 @@
         <v>1.57232704402516</v>
       </c>
       <c r="R27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T27" s="78">
         <v>8</v>
@@ -20455,10 +20344,10 @@
         <v>0.83857442348008004</v>
       </c>
       <c r="V27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X27" s="78">
         <v>8</v>
@@ -20467,16 +20356,16 @@
         <v>0.83857442348008004</v>
       </c>
       <c r="Z27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AA27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD27" s="78">
         <v>6</v>
@@ -20515,10 +20404,10 @@
         <v>0.41928721174004002</v>
       </c>
       <c r="AP27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR27" s="78">
         <v>0</v>
@@ -20527,10 +20416,10 @@
         <v>0</v>
       </c>
       <c r="AT27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV27" s="78">
         <v>0</v>
@@ -20551,46 +20440,46 @@
         <v>0</v>
       </c>
       <c r="BB27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP27" s="78">
         <v>4</v>
@@ -20599,10 +20488,10 @@
         <v>0.41928721174004002</v>
       </c>
       <c r="BR27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT27" s="78">
         <v>6</v>
@@ -20809,10 +20698,10 @@
         <v>0.52410901467505</v>
       </c>
       <c r="EJ27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK27" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL27" s="78">
         <v>0</v>
@@ -20838,16 +20727,10 @@
       <c r="ES27" s="152">
         <v>0</v>
       </c>
-      <c r="ET27" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU27" s="152">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:151">
+    <row r="28" spans="1:149">
       <c r="A28" s="158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B28" s="78">
         <v>822</v>
@@ -20874,52 +20757,52 @@
         <v>0</v>
       </c>
       <c r="J28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z28" s="78">
         <v>10</v>
@@ -20952,10 +20835,10 @@
         <v>1.5815085158150901</v>
       </c>
       <c r="AJ28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL28" s="78">
         <v>5</v>
@@ -20964,10 +20847,10 @@
         <v>0.60827250608272998</v>
       </c>
       <c r="AN28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP28" s="78">
         <v>4</v>
@@ -20976,10 +20859,10 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="AR28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT28" s="78">
         <v>5</v>
@@ -20988,10 +20871,10 @@
         <v>0.60827250608272998</v>
       </c>
       <c r="AV28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX28" s="78">
         <v>6</v>
@@ -21012,10 +20895,10 @@
         <v>0</v>
       </c>
       <c r="BD28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF28" s="78">
         <v>0</v>
@@ -21024,10 +20907,10 @@
         <v>0</v>
       </c>
       <c r="BH28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ28" s="78">
         <v>4</v>
@@ -21048,10 +20931,10 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="BP28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR28" s="78">
         <v>4</v>
@@ -21066,10 +20949,10 @@
         <v>0.85158150851582004</v>
       </c>
       <c r="BV28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BW28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BX28" s="78">
         <v>13</v>
@@ -21162,16 +21045,16 @@
         <v>1.94647201946472</v>
       </c>
       <c r="DB28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DC28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DD28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DE28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DF28" s="78">
         <v>6</v>
@@ -21258,28 +21141,28 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="EH28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO28" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP28" s="78">
         <v>0</v>
@@ -21288,21 +21171,15 @@
         <v>0</v>
       </c>
       <c r="ER28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="ES28" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET28" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU28" s="152">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:151">
+    <row r="29" spans="1:149">
       <c r="A29" s="158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B29" s="78">
         <v>494</v>
@@ -21323,10 +21200,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J29" s="78">
         <v>7</v>
@@ -21389,16 +21266,16 @@
         <v>1.2145748987854299</v>
       </c>
       <c r="AD29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH29" s="78">
         <v>7</v>
@@ -21419,16 +21296,16 @@
         <v>1.417004048583</v>
       </c>
       <c r="AN29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR29" s="78">
         <v>4</v>
@@ -21437,10 +21314,10 @@
         <v>0.80971659919028005</v>
       </c>
       <c r="AT29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV29" s="78">
         <v>0</v>
@@ -21455,22 +21332,22 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF29" s="78">
         <v>0</v>
@@ -21479,16 +21356,16 @@
         <v>0</v>
       </c>
       <c r="BH29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL29" s="78">
         <v>4</v>
@@ -21497,16 +21374,16 @@
         <v>0.80971659919028005</v>
       </c>
       <c r="BN29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR29" s="78">
         <v>5</v>
@@ -21515,16 +21392,16 @@
         <v>1.01214574898785</v>
       </c>
       <c r="BT29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BW29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BX29" s="78">
         <v>7</v>
@@ -21593,28 +21470,28 @@
         <v>1.417004048583</v>
       </c>
       <c r="CT29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CU29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CV29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CW29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CX29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CZ29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DA29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DB29" s="78">
         <v>8</v>
@@ -21671,10 +21548,10 @@
         <v>3.6437246963562799</v>
       </c>
       <c r="DT29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DU29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DV29" s="78">
         <v>11</v>
@@ -21701,28 +21578,28 @@
         <v>1.417004048583</v>
       </c>
       <c r="ED29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ29" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK29" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL29" s="78">
         <v>0</v>
@@ -21743,21 +21620,15 @@
         <v>0</v>
       </c>
       <c r="ER29" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="ES29" s="152" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET29" s="78">
-        <v>0</v>
-      </c>
-      <c r="EU29" s="152">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:151" ht="14.25" thickBot="1">
+    <row r="30" spans="1:149" ht="14.25" thickBot="1">
       <c r="A30" s="158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B30" s="151">
         <v>274</v>
@@ -21778,16 +21649,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L30" s="151">
         <v>0</v>
@@ -21796,16 +21667,16 @@
         <v>0</v>
       </c>
       <c r="N30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R30" s="151">
         <v>0</v>
@@ -21814,10 +21685,10 @@
         <v>0</v>
       </c>
       <c r="T30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V30" s="151">
         <v>0</v>
@@ -21826,34 +21697,34 @@
         <v>0</v>
       </c>
       <c r="X30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AA30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH30" s="151">
         <v>0</v>
@@ -21862,10 +21733,10 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL30" s="151">
         <v>0</v>
@@ -21874,10 +21745,10 @@
         <v>0</v>
       </c>
       <c r="AN30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP30" s="151">
         <v>0</v>
@@ -21886,10 +21757,10 @@
         <v>0</v>
       </c>
       <c r="AR30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT30" s="151">
         <v>0</v>
@@ -21904,16 +21775,16 @@
         <v>0</v>
       </c>
       <c r="AX30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB30" s="151">
         <v>0</v>
@@ -21922,10 +21793,10 @@
         <v>0</v>
       </c>
       <c r="BD30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF30" s="151">
         <v>0</v>
@@ -21934,10 +21805,10 @@
         <v>0</v>
       </c>
       <c r="BH30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ30" s="151">
         <v>0</v>
@@ -21952,28 +21823,28 @@
         <v>0</v>
       </c>
       <c r="BN30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV30" s="151">
         <v>11</v>
@@ -22048,40 +21919,40 @@
         <v>2.1897810218978102</v>
       </c>
       <c r="CT30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CU30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CV30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CW30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CX30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CZ30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DA30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DB30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DC30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DD30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DE30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DF30" s="151">
         <v>8</v>
@@ -22126,10 +21997,10 @@
         <v>1.8248175182481801</v>
       </c>
       <c r="DT30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DU30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DV30" s="151">
         <v>6</v>
@@ -22150,34 +22021,34 @@
         <v>1.4598540145985399</v>
       </c>
       <c r="EB30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ30" s="151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL30" s="151">
         <v>0</v>
@@ -22186,31 +22057,25 @@
         <v>0</v>
       </c>
       <c r="EN30" s="151" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EO30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP30" s="151" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EQ30" s="150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ER30" s="151" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="ES30" s="150" t="s">
-        <v>331</v>
-      </c>
-      <c r="ET30" s="151">
-        <v>0</v>
-      </c>
-      <c r="EU30" s="150">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:151" ht="15.75" customHeight="1" thickTop="1">
+    <row r="31" spans="1:149" ht="15.75" customHeight="1" thickTop="1">
       <c r="A31" s="67" t="s">
         <v>173</v>
       </c>
@@ -22240,7 +22105,7 @@
       <c r="BO31" s="19"/>
       <c r="BP31" s="19"/>
     </row>
-    <row r="32" spans="1:151">
+    <row r="32" spans="1:149">
       <c r="A32" s="48" t="s">
         <v>161</v>
       </c>
@@ -22320,46 +22185,28 @@
       <c r="EB37" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="DL5:EQ5"/>
-    <mergeCell ref="ET6:EU6"/>
-    <mergeCell ref="EJ6:EK6"/>
-    <mergeCell ref="EL6:EM6"/>
-    <mergeCell ref="EN6:EO6"/>
-    <mergeCell ref="EP6:EQ6"/>
-    <mergeCell ref="ER6:ES6"/>
-    <mergeCell ref="DZ6:EA6"/>
-    <mergeCell ref="EB6:EC6"/>
-    <mergeCell ref="ED6:EE6"/>
-    <mergeCell ref="EF6:EG6"/>
-    <mergeCell ref="EH6:EI6"/>
-    <mergeCell ref="DT6:DU6"/>
-    <mergeCell ref="DV6:DW6"/>
-    <mergeCell ref="DX6:DY6"/>
-    <mergeCell ref="DN6:DO6"/>
-    <mergeCell ref="CV6:CW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
+  <mergeCells count="78">
+    <mergeCell ref="DR6:DS6"/>
+    <mergeCell ref="D5:DC5"/>
+    <mergeCell ref="DD6:DE6"/>
+    <mergeCell ref="DF6:DG6"/>
+    <mergeCell ref="DH6:DI6"/>
+    <mergeCell ref="DJ6:DK6"/>
+    <mergeCell ref="DL6:DM6"/>
+    <mergeCell ref="CX6:CY6"/>
+    <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="CT6:CU6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="DB6:DC6"/>
+    <mergeCell ref="CZ6:DA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="DL5:ES5"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="DP6:DQ6"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="BJ6:BK6"/>
@@ -22376,30 +22223,47 @@
     <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="CV6:CW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CD6:CE6"/>
     <mergeCell ref="CH6:CI6"/>
     <mergeCell ref="CL6:CM6"/>
     <mergeCell ref="CN6:CO6"/>
     <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="DP6:DQ6"/>
-    <mergeCell ref="DR6:DS6"/>
-    <mergeCell ref="D5:DC5"/>
-    <mergeCell ref="DD6:DE6"/>
-    <mergeCell ref="DF6:DG6"/>
-    <mergeCell ref="DH6:DI6"/>
-    <mergeCell ref="DJ6:DK6"/>
-    <mergeCell ref="DL6:DM6"/>
-    <mergeCell ref="CX6:CY6"/>
-    <mergeCell ref="CR6:CS6"/>
-    <mergeCell ref="CT6:CU6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="DB6:DC6"/>
-    <mergeCell ref="CZ6:DA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="EJ6:EK6"/>
+    <mergeCell ref="EL6:EM6"/>
+    <mergeCell ref="EN6:EO6"/>
+    <mergeCell ref="EP6:EQ6"/>
+    <mergeCell ref="ER6:ES6"/>
+    <mergeCell ref="DZ6:EA6"/>
+    <mergeCell ref="EB6:EC6"/>
+    <mergeCell ref="ED6:EE6"/>
+    <mergeCell ref="EF6:EG6"/>
+    <mergeCell ref="EH6:EI6"/>
+    <mergeCell ref="DT6:DU6"/>
+    <mergeCell ref="DV6:DW6"/>
+    <mergeCell ref="DX6:DY6"/>
+    <mergeCell ref="DN6:DO6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22409,7 +22273,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ES36"/>
+  <dimension ref="A1:EQ36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -22478,12 +22342,12 @@
     <col min="84" max="16384" width="9.33203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:147" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:149" ht="46.5" customHeight="1">
+    <row r="2" spans="1:147" ht="46.5" customHeight="1">
       <c r="A2" s="248" t="s">
         <v>256</v>
       </c>
@@ -22515,7 +22379,7 @@
       <c r="CD2" s="164"/>
       <c r="CE2" s="30"/>
     </row>
-    <row r="3" spans="1:149">
+    <row r="3" spans="1:147">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -22526,10 +22390,10 @@
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
     </row>
-    <row r="4" spans="1:149" ht="14.25" thickBot="1">
+    <row r="4" spans="1:147" ht="14.25" thickBot="1">
       <c r="A4" s="102"/>
     </row>
-    <row r="5" spans="1:149" ht="28.5" customHeight="1">
+    <row r="5" spans="1:147" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="250" t="s">
         <v>183</v>
@@ -22682,308 +22546,302 @@
       <c r="EN5" s="239"/>
       <c r="EO5" s="239"/>
       <c r="EP5" s="239"/>
-      <c r="EQ5" s="239"/>
-      <c r="ER5" s="239"/>
-      <c r="ES5" s="194"/>
+      <c r="EQ5" s="269"/>
     </row>
-    <row r="6" spans="1:149" ht="13.5" customHeight="1">
+    <row r="6" spans="1:147" ht="13.5" customHeight="1">
       <c r="A6" s="252"/>
       <c r="B6" s="245"/>
       <c r="C6" s="244"/>
-      <c r="D6" s="256" t="s">
+      <c r="D6" s="260" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="257"/>
-      <c r="F6" s="256" t="s">
+      <c r="E6" s="261"/>
+      <c r="F6" s="260" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="257"/>
-      <c r="H6" s="256" t="s">
+      <c r="G6" s="261"/>
+      <c r="H6" s="260" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="257"/>
-      <c r="J6" s="256" t="s">
+      <c r="I6" s="261"/>
+      <c r="J6" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="257"/>
-      <c r="L6" s="256" t="s">
+      <c r="K6" s="261"/>
+      <c r="L6" s="260" t="s">
         <v>150</v>
       </c>
-      <c r="M6" s="257"/>
-      <c r="N6" s="256" t="s">
+      <c r="M6" s="261"/>
+      <c r="N6" s="260" t="s">
         <v>151</v>
       </c>
-      <c r="O6" s="257"/>
-      <c r="P6" s="256" t="s">
+      <c r="O6" s="261"/>
+      <c r="P6" s="260" t="s">
         <v>152</v>
       </c>
-      <c r="Q6" s="257"/>
-      <c r="R6" s="256" t="s">
+      <c r="Q6" s="261"/>
+      <c r="R6" s="260" t="s">
         <v>153</v>
       </c>
-      <c r="S6" s="257"/>
-      <c r="T6" s="256" t="s">
+      <c r="S6" s="261"/>
+      <c r="T6" s="260" t="s">
         <v>154</v>
       </c>
-      <c r="U6" s="257"/>
-      <c r="V6" s="256" t="s">
+      <c r="U6" s="261"/>
+      <c r="V6" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="W6" s="257"/>
-      <c r="X6" s="256" t="s">
+      <c r="W6" s="261"/>
+      <c r="X6" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="Y6" s="257"/>
-      <c r="Z6" s="256" t="s">
+      <c r="Y6" s="261"/>
+      <c r="Z6" s="260" t="s">
         <v>180</v>
       </c>
-      <c r="AA6" s="257"/>
-      <c r="AB6" s="256" t="s">
+      <c r="AA6" s="261"/>
+      <c r="AB6" s="260" t="s">
         <v>200</v>
       </c>
-      <c r="AC6" s="257"/>
+      <c r="AC6" s="261"/>
       <c r="AD6" s="267" t="s">
         <v>208</v>
       </c>
-      <c r="AE6" s="257"/>
+      <c r="AE6" s="261"/>
       <c r="AF6" s="267" t="s">
         <v>212</v>
       </c>
-      <c r="AG6" s="257"/>
+      <c r="AG6" s="261"/>
       <c r="AH6" s="267" t="s">
         <v>218</v>
       </c>
-      <c r="AI6" s="257"/>
+      <c r="AI6" s="261"/>
       <c r="AJ6" s="267" t="s">
         <v>219</v>
       </c>
-      <c r="AK6" s="257"/>
+      <c r="AK6" s="261"/>
       <c r="AL6" s="267" t="s">
         <v>220</v>
       </c>
-      <c r="AM6" s="257"/>
+      <c r="AM6" s="261"/>
       <c r="AN6" s="267" t="s">
         <v>221</v>
       </c>
-      <c r="AO6" s="257"/>
+      <c r="AO6" s="261"/>
       <c r="AP6" s="267" t="s">
         <v>222</v>
       </c>
-      <c r="AQ6" s="257"/>
+      <c r="AQ6" s="261"/>
       <c r="AR6" s="267" t="s">
         <v>223</v>
       </c>
-      <c r="AS6" s="257"/>
+      <c r="AS6" s="261"/>
       <c r="AT6" s="267" t="s">
         <v>224</v>
       </c>
-      <c r="AU6" s="257"/>
+      <c r="AU6" s="261"/>
       <c r="AV6" s="267" t="s">
         <v>225</v>
       </c>
-      <c r="AW6" s="257"/>
+      <c r="AW6" s="261"/>
       <c r="AX6" s="267" t="s">
         <v>226</v>
       </c>
-      <c r="AY6" s="257"/>
+      <c r="AY6" s="261"/>
       <c r="AZ6" s="267" t="s">
         <v>228</v>
       </c>
-      <c r="BA6" s="257"/>
+      <c r="BA6" s="261"/>
       <c r="BB6" s="267" t="s">
         <v>229</v>
       </c>
-      <c r="BC6" s="257"/>
+      <c r="BC6" s="261"/>
       <c r="BD6" s="267" t="s">
         <v>230</v>
       </c>
-      <c r="BE6" s="257"/>
+      <c r="BE6" s="261"/>
       <c r="BF6" s="267" t="s">
         <v>232</v>
       </c>
-      <c r="BG6" s="257"/>
+      <c r="BG6" s="261"/>
       <c r="BH6" s="267" t="s">
         <v>231</v>
       </c>
-      <c r="BI6" s="257"/>
+      <c r="BI6" s="261"/>
       <c r="BJ6" s="267" t="s">
         <v>233</v>
       </c>
-      <c r="BK6" s="257"/>
+      <c r="BK6" s="261"/>
       <c r="BL6" s="267" t="s">
         <v>235</v>
       </c>
-      <c r="BM6" s="257"/>
+      <c r="BM6" s="261"/>
       <c r="BN6" s="267" t="s">
         <v>236</v>
       </c>
-      <c r="BO6" s="257"/>
+      <c r="BO6" s="261"/>
       <c r="BP6" s="267" t="s">
         <v>242</v>
       </c>
-      <c r="BQ6" s="257"/>
+      <c r="BQ6" s="261"/>
       <c r="BR6" s="267" t="s">
         <v>241</v>
       </c>
-      <c r="BS6" s="257"/>
+      <c r="BS6" s="261"/>
       <c r="BT6" s="267" t="s">
         <v>240</v>
       </c>
-      <c r="BU6" s="257"/>
+      <c r="BU6" s="261"/>
       <c r="BV6" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="BW6" s="257"/>
+      <c r="BW6" s="261"/>
       <c r="BX6" s="267" t="s">
         <v>238</v>
       </c>
-      <c r="BY6" s="257"/>
+      <c r="BY6" s="261"/>
       <c r="BZ6" s="267" t="s">
         <v>237</v>
       </c>
-      <c r="CA6" s="257"/>
+      <c r="CA6" s="261"/>
       <c r="CB6" s="267" t="s">
         <v>244</v>
       </c>
-      <c r="CC6" s="257"/>
+      <c r="CC6" s="261"/>
       <c r="CD6" s="267" t="s">
         <v>243</v>
       </c>
-      <c r="CE6" s="257"/>
+      <c r="CE6" s="261"/>
       <c r="CF6" s="267" t="s">
         <v>245</v>
       </c>
-      <c r="CG6" s="257"/>
+      <c r="CG6" s="261"/>
       <c r="CH6" s="267" t="s">
         <v>246</v>
       </c>
-      <c r="CI6" s="257"/>
+      <c r="CI6" s="261"/>
       <c r="CJ6" s="267" t="s">
         <v>247</v>
       </c>
-      <c r="CK6" s="257"/>
+      <c r="CK6" s="261"/>
       <c r="CL6" s="267" t="s">
         <v>248</v>
       </c>
-      <c r="CM6" s="257"/>
+      <c r="CM6" s="261"/>
       <c r="CN6" s="267" t="s">
         <v>249</v>
       </c>
-      <c r="CO6" s="257"/>
+      <c r="CO6" s="261"/>
       <c r="CP6" s="267" t="s">
         <v>250</v>
       </c>
-      <c r="CQ6" s="257"/>
+      <c r="CQ6" s="261"/>
       <c r="CR6" s="267" t="s">
         <v>251</v>
       </c>
-      <c r="CS6" s="257"/>
+      <c r="CS6" s="261"/>
       <c r="CT6" s="267" t="s">
         <v>252</v>
       </c>
-      <c r="CU6" s="257"/>
+      <c r="CU6" s="261"/>
       <c r="CV6" s="267" t="s">
         <v>253</v>
       </c>
-      <c r="CW6" s="257"/>
+      <c r="CW6" s="261"/>
       <c r="CX6" s="267" t="s">
         <v>260</v>
       </c>
-      <c r="CY6" s="257"/>
+      <c r="CY6" s="261"/>
       <c r="CZ6" s="267" t="s">
         <v>261</v>
       </c>
-      <c r="DA6" s="257"/>
+      <c r="DA6" s="261"/>
       <c r="DB6" s="267" t="s">
         <v>262</v>
       </c>
-      <c r="DC6" s="257"/>
+      <c r="DC6" s="261"/>
       <c r="DD6" s="267" t="s">
         <v>263</v>
       </c>
-      <c r="DE6" s="257"/>
+      <c r="DE6" s="261"/>
       <c r="DF6" s="267" t="s">
         <v>264</v>
       </c>
-      <c r="DG6" s="257"/>
+      <c r="DG6" s="261"/>
       <c r="DH6" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="DI6" s="257"/>
+      <c r="DI6" s="261"/>
       <c r="DJ6" s="267" t="s">
         <v>266</v>
       </c>
-      <c r="DK6" s="257"/>
+      <c r="DK6" s="261"/>
       <c r="DL6" s="267" t="s">
         <v>267</v>
       </c>
-      <c r="DM6" s="257"/>
+      <c r="DM6" s="261"/>
       <c r="DN6" s="267" t="s">
         <v>268</v>
       </c>
-      <c r="DO6" s="257"/>
+      <c r="DO6" s="261"/>
       <c r="DP6" s="267" t="s">
         <v>269</v>
       </c>
-      <c r="DQ6" s="257"/>
+      <c r="DQ6" s="261"/>
       <c r="DR6" s="267" t="s">
         <v>278</v>
       </c>
-      <c r="DS6" s="257"/>
+      <c r="DS6" s="261"/>
       <c r="DT6" s="267" t="s">
         <v>279</v>
       </c>
-      <c r="DU6" s="257"/>
+      <c r="DU6" s="261"/>
       <c r="DV6" s="267" t="s">
         <v>280</v>
       </c>
-      <c r="DW6" s="257"/>
+      <c r="DW6" s="261"/>
       <c r="DX6" s="267" t="s">
+        <v>293</v>
+      </c>
+      <c r="DY6" s="261"/>
+      <c r="DZ6" s="267" t="s">
         <v>294</v>
       </c>
-      <c r="DY6" s="257"/>
-      <c r="DZ6" s="267" t="s">
+      <c r="EA6" s="261"/>
+      <c r="EB6" s="267" t="s">
         <v>295</v>
       </c>
-      <c r="EA6" s="257"/>
-      <c r="EB6" s="267" t="s">
+      <c r="EC6" s="261"/>
+      <c r="ED6" s="267" t="s">
         <v>296</v>
       </c>
-      <c r="EC6" s="257"/>
-      <c r="ED6" s="267" t="s">
+      <c r="EE6" s="261"/>
+      <c r="EF6" s="267" t="s">
         <v>297</v>
       </c>
-      <c r="EE6" s="257"/>
-      <c r="EF6" s="267" t="s">
+      <c r="EG6" s="261"/>
+      <c r="EH6" s="267" t="s">
         <v>298</v>
       </c>
-      <c r="EG6" s="257"/>
-      <c r="EH6" s="267" t="s">
+      <c r="EI6" s="261"/>
+      <c r="EJ6" s="267" t="s">
         <v>299</v>
       </c>
-      <c r="EI6" s="257"/>
-      <c r="EJ6" s="267" t="s">
+      <c r="EK6" s="261"/>
+      <c r="EL6" s="267" t="s">
         <v>300</v>
       </c>
-      <c r="EK6" s="257"/>
-      <c r="EL6" s="267" t="s">
+      <c r="EM6" s="261"/>
+      <c r="EN6" s="267" t="s">
         <v>301</v>
       </c>
-      <c r="EM6" s="257"/>
-      <c r="EN6" s="267" t="s">
+      <c r="EO6" s="261"/>
+      <c r="EP6" s="267" t="s">
         <v>302</v>
       </c>
-      <c r="EO6" s="257"/>
-      <c r="EP6" s="267" t="s">
-        <v>303</v>
-      </c>
-      <c r="EQ6" s="257"/>
-      <c r="ER6" s="267" t="s">
-        <v>304</v>
-      </c>
-      <c r="ES6" s="257"/>
+      <c r="EQ6" s="261"/>
     </row>
-    <row r="7" spans="1:149">
+    <row r="7" spans="1:147">
       <c r="A7" s="253"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
@@ -23423,16 +23281,10 @@
       <c r="EQ7" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="ER7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="ES7" s="178" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="8" spans="1:149">
+    <row r="8" spans="1:147">
       <c r="A8" s="184" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B8" s="185">
         <v>56816</v>
@@ -23872,14 +23724,8 @@
       <c r="EQ8" s="187">
         <v>7.0402703463810001E-2</v>
       </c>
-      <c r="ER8" s="185">
-        <v>0</v>
-      </c>
-      <c r="ES8" s="187">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:149">
+    <row r="9" spans="1:147">
       <c r="A9" s="66" t="s">
         <v>129</v>
       </c>
@@ -24029,12 +23875,10 @@
       <c r="EO9" s="176"/>
       <c r="EP9" s="65"/>
       <c r="EQ9" s="176"/>
-      <c r="ER9" s="65"/>
-      <c r="ES9" s="176"/>
     </row>
-    <row r="10" spans="1:149">
+    <row r="10" spans="1:147">
       <c r="A10" s="183" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" s="89">
         <v>17216</v>
@@ -24474,16 +24318,10 @@
       <c r="EQ10" s="179">
         <v>2.3234200743489999E-2</v>
       </c>
-      <c r="ER10" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES10" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:149">
+    <row r="11" spans="1:147">
       <c r="A11" s="183" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B11" s="89">
         <v>9169</v>
@@ -24923,16 +24761,10 @@
       <c r="EQ11" s="179">
         <v>0.26175155414985002</v>
       </c>
-      <c r="ER11" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES11" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:149">
+    <row r="12" spans="1:147">
       <c r="A12" s="183" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B12" s="89">
         <v>6320</v>
@@ -24941,10 +24773,10 @@
         <v>11.1236271472825</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E12" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F12" s="78">
         <v>8</v>
@@ -25355,16 +25187,16 @@
         <v>0.14240506329114</v>
       </c>
       <c r="EL12" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM12" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN12" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO12" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP12" s="180">
         <v>0</v>
@@ -25372,16 +25204,10 @@
       <c r="EQ12" s="179">
         <v>0</v>
       </c>
-      <c r="ER12" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES12" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:149">
+    <row r="13" spans="1:147">
       <c r="A13" s="183" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B13" s="89">
         <v>2818</v>
@@ -25390,10 +25216,10 @@
         <v>4.9598704590256304</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E13" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F13" s="78">
         <v>10</v>
@@ -25540,16 +25366,16 @@
         <v>0.17743080198722</v>
       </c>
       <c r="BB13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC13" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE13" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF13" s="78">
         <v>5</v>
@@ -25570,22 +25396,22 @@
         <v>0.24840312278212001</v>
       </c>
       <c r="BL13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM13" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO13" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP13" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ13" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR13" s="78">
         <v>28</v>
@@ -25804,33 +25630,27 @@
         <v>0.21291696238467001</v>
       </c>
       <c r="EL13" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM13" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN13" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO13" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP13" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ13" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER13" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES13" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:149">
+    <row r="14" spans="1:147">
       <c r="A14" s="183" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B14" s="89">
         <v>2466</v>
@@ -25989,10 +25809,10 @@
         <v>0.16220600162206</v>
       </c>
       <c r="BB14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC14" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD14" s="78">
         <v>5</v>
@@ -26001,28 +25821,28 @@
         <v>0.20275750202758</v>
       </c>
       <c r="BF14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG14" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI14" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK14" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL14" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM14" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN14" s="78">
         <v>8</v>
@@ -26247,39 +26067,33 @@
         <v>0.28386050283860997</v>
       </c>
       <c r="EJ14" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK14" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL14" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM14" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN14" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO14" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP14" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ14" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER14" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES14" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:149">
+    <row r="15" spans="1:147">
       <c r="A15" s="183" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B15" s="89">
         <v>2025</v>
@@ -26294,10 +26108,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G15" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H15" s="78">
         <v>6</v>
@@ -26456,16 +26270,16 @@
         <v>0.2962962962963</v>
       </c>
       <c r="BH15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI15" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ15" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK15" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL15" s="78">
         <v>8</v>
@@ -26714,21 +26528,15 @@
         <v>0.24691358024691001</v>
       </c>
       <c r="EP15" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ15" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER15" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES15" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:149">
+    <row r="16" spans="1:147">
       <c r="A16" s="183" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B16" s="89">
         <v>2014</v>
@@ -26737,16 +26545,16 @@
         <v>3.5447761194029899</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E16" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G16" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H16" s="78">
         <v>11</v>
@@ -26857,10 +26665,10 @@
         <v>0.19860973187686001</v>
       </c>
       <c r="AR16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS16" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT16" s="78">
         <v>4</v>
@@ -26869,22 +26677,22 @@
         <v>0.19860973187686001</v>
       </c>
       <c r="AV16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW16" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY16" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA16" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB16" s="78">
         <v>4</v>
@@ -26899,10 +26707,10 @@
         <v>0.19860973187686001</v>
       </c>
       <c r="BF16" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG16" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH16" s="78">
         <v>4</v>
@@ -27139,10 +26947,10 @@
         <v>0.29791459781529001</v>
       </c>
       <c r="EH16" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI16" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ16" s="180">
         <v>0</v>
@@ -27151,33 +26959,27 @@
         <v>0</v>
       </c>
       <c r="EL16" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM16" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN16" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO16" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP16" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ16" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER16" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES16" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:149">
+    <row r="17" spans="1:147">
       <c r="A17" s="183" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B17" s="89">
         <v>1830</v>
@@ -27186,10 +26988,10 @@
         <v>3.2209236834694499</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E17" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F17" s="78">
         <v>6</v>
@@ -27300,16 +27102,16 @@
         <v>0.54644808743169004</v>
       </c>
       <c r="AP17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ17" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS17" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT17" s="78">
         <v>0</v>
@@ -27318,10 +27120,10 @@
         <v>0</v>
       </c>
       <c r="AV17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW17" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX17" s="78">
         <v>4</v>
@@ -27336,10 +27138,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC17" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD17" s="78">
         <v>0</v>
@@ -27348,10 +27150,10 @@
         <v>0</v>
       </c>
       <c r="BF17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG17" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH17" s="78">
         <v>0</v>
@@ -27360,28 +27162,28 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK17" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM17" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO17" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP17" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ17" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR17" s="78">
         <v>8</v>
@@ -27594,10 +27396,10 @@
         <v>0.32786885245901998</v>
       </c>
       <c r="EJ17" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK17" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL17" s="180">
         <v>7</v>
@@ -27612,21 +27414,15 @@
         <v>0.38251366120218999</v>
       </c>
       <c r="EP17" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ17" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER17" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES17" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:149">
+    <row r="18" spans="1:147">
       <c r="A18" s="183" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B18" s="89">
         <v>1523</v>
@@ -27749,10 +27545,10 @@
         <v>0.26263952724884998</v>
       </c>
       <c r="AP18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR18" s="78">
         <v>5</v>
@@ -27767,34 +27563,34 @@
         <v>0.26263952724884998</v>
       </c>
       <c r="AV18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE18" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF18" s="78">
         <v>6</v>
@@ -27809,10 +27605,10 @@
         <v>0.26263952724884998</v>
       </c>
       <c r="BJ18" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK18" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL18" s="78">
         <v>5</v>
@@ -28043,16 +27839,16 @@
         <v>0.32829940906105998</v>
       </c>
       <c r="EJ18" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK18" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL18" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM18" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN18" s="180">
         <v>0</v>
@@ -28061,21 +27857,15 @@
         <v>0</v>
       </c>
       <c r="EP18" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ18" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER18" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES18" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:149">
+    <row r="19" spans="1:147">
       <c r="A19" s="183" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B19" s="89">
         <v>1427</v>
@@ -28264,16 +28054,16 @@
         <v>0.70077084793273003</v>
       </c>
       <c r="BL19" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM19" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN19" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO19" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP19" s="78">
         <v>5</v>
@@ -28498,33 +28288,27 @@
         <v>0.42046250875963997</v>
       </c>
       <c r="EL19" s="180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EM19" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN19" s="180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EO19" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP19" s="180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EQ19" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER19" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES19" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:149">
+    <row r="20" spans="1:147">
       <c r="A20" s="183" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B20" s="89">
         <v>1408</v>
@@ -28539,10 +28323,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G20" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H20" s="78">
         <v>8</v>
@@ -28647,10 +28431,10 @@
         <v>0.42613636363635998</v>
       </c>
       <c r="AP20" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ20" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR20" s="98">
         <v>7</v>
@@ -28683,16 +28467,16 @@
         <v>0.49715909090909</v>
       </c>
       <c r="BB20" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC20" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD20" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE20" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF20" s="98">
         <v>5</v>
@@ -28923,28 +28707,28 @@
         <v>0.56818181818182001</v>
       </c>
       <c r="ED20" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE20" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF20" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG20" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH20" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI20" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ20" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK20" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL20" s="180">
         <v>0</v>
@@ -28964,16 +28748,10 @@
       <c r="EQ20" s="179">
         <v>0</v>
       </c>
-      <c r="ER20" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES20" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:149">
+    <row r="21" spans="1:147">
       <c r="A21" s="183" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B21" s="89">
         <v>1396</v>
@@ -28988,10 +28766,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G21" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H21" s="78">
         <v>5</v>
@@ -29102,28 +28880,28 @@
         <v>0</v>
       </c>
       <c r="AR21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ21" s="98">
         <v>4</v>
@@ -29132,16 +28910,16 @@
         <v>0.28653295128939998</v>
       </c>
       <c r="BB21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE21" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF21" s="98">
         <v>5</v>
@@ -29150,10 +28928,10 @@
         <v>0.35816618911175002</v>
       </c>
       <c r="BH21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI21" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ21" s="98">
         <v>5</v>
@@ -29162,16 +28940,16 @@
         <v>0.35816618911175002</v>
       </c>
       <c r="BL21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM21" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN21" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO21" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP21" s="98">
         <v>6</v>
@@ -29366,10 +29144,10 @@
         <v>0.71633237822350004</v>
       </c>
       <c r="EB21" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC21" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED21" s="180">
         <v>8</v>
@@ -29384,22 +29162,22 @@
         <v>0.28653295128939998</v>
       </c>
       <c r="EH21" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI21" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ21" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK21" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL21" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM21" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN21" s="180">
         <v>0</v>
@@ -29413,16 +29191,10 @@
       <c r="EQ21" s="179">
         <v>0</v>
       </c>
-      <c r="ER21" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES21" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:149">
+    <row r="22" spans="1:147">
       <c r="A22" s="183" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B22" s="89">
         <v>1310</v>
@@ -29581,22 +29353,22 @@
         <v>0.38167938931298001</v>
       </c>
       <c r="BB22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC22" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE22" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG22" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH22" s="78">
         <v>4</v>
@@ -29629,22 +29401,22 @@
         <v>0.30534351145038002</v>
       </c>
       <c r="BR22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS22" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU22" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV22" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BW22" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BX22" s="78">
         <v>19</v>
@@ -29839,16 +29611,16 @@
         <v>0.30534351145038002</v>
       </c>
       <c r="EJ22" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK22" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL22" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM22" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN22" s="180">
         <v>0</v>
@@ -29862,16 +29634,10 @@
       <c r="EQ22" s="179">
         <v>0</v>
       </c>
-      <c r="ER22" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES22" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:149">
+    <row r="23" spans="1:147">
       <c r="A23" s="183" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B23" s="89">
         <v>1075</v>
@@ -29880,22 +29646,22 @@
         <v>1.8920726555899801</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E23" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G23" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H23" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I23" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J23" s="82">
         <v>10</v>
@@ -29994,34 +29760,34 @@
         <v>0.74418604651163001</v>
       </c>
       <c r="AP23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ23" s="78">
         <v>4</v>
@@ -30030,46 +29796,46 @@
         <v>0.37209302325581001</v>
       </c>
       <c r="BB23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG23" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI23" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK23" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM23" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO23" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP23" s="78">
         <v>0</v>
@@ -30084,10 +29850,10 @@
         <v>0.37209302325581001</v>
       </c>
       <c r="BT23" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU23" s="174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV23" s="78">
         <v>9</v>
@@ -30282,28 +30048,28 @@
         <v>0.37209302325581001</v>
       </c>
       <c r="EH23" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI23" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ23" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK23" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL23" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM23" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN23" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO23" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP23" s="180">
         <v>0</v>
@@ -30311,16 +30077,10 @@
       <c r="EQ23" s="179">
         <v>0</v>
       </c>
-      <c r="ER23" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES23" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:149">
+    <row r="24" spans="1:147">
       <c r="A24" s="183" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B24" s="89">
         <v>958</v>
@@ -30353,16 +30113,16 @@
         <v>0.52192066805846005</v>
       </c>
       <c r="L24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M24" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O24" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P24" s="78">
         <v>17</v>
@@ -30449,10 +30209,10 @@
         <v>0</v>
       </c>
       <c r="AR24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT24" s="78">
         <v>0</v>
@@ -30461,46 +30221,46 @@
         <v>0</v>
       </c>
       <c r="AV24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG24" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI24" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ24" s="78">
         <v>0</v>
@@ -30515,22 +30275,22 @@
         <v>0.62630480167015001</v>
       </c>
       <c r="BN24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO24" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ24" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR24" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS24" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT24" s="78">
         <v>11</v>
@@ -30713,10 +30473,10 @@
         <v>1.1482254697286001</v>
       </c>
       <c r="EB24" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC24" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED24" s="180">
         <v>12</v>
@@ -30743,16 +30503,16 @@
         <v>0.52192066805846005</v>
       </c>
       <c r="EL24" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM24" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN24" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO24" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP24" s="180">
         <v>0</v>
@@ -30760,16 +30520,10 @@
       <c r="EQ24" s="179">
         <v>0</v>
       </c>
-      <c r="ER24" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES24" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:149">
+    <row r="25" spans="1:147">
       <c r="A25" s="183" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B25" s="89">
         <v>899</v>
@@ -30778,16 +30532,16 @@
         <v>1.5823007603492001</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E25" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G25" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H25" s="78">
         <v>15</v>
@@ -30892,22 +30646,22 @@
         <v>0.55617352614016002</v>
       </c>
       <c r="AP25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV25" s="78">
         <v>5</v>
@@ -30916,16 +30670,16 @@
         <v>0.55617352614016002</v>
       </c>
       <c r="AX25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB25" s="78">
         <v>6</v>
@@ -30934,16 +30688,16 @@
         <v>0.66740823136819005</v>
       </c>
       <c r="BD25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF25" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG25" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH25" s="78">
         <v>6</v>
@@ -31060,16 +30814,16 @@
         <v>1.1123470522803101</v>
       </c>
       <c r="CT25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CU25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CV25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CW25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CX25" s="180">
         <v>4</v>
@@ -31078,10 +30832,10 @@
         <v>0.44493882091212</v>
       </c>
       <c r="CZ25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DA25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DB25" s="180">
         <v>11</v>
@@ -31150,10 +30904,10 @@
         <v>1.7797552836485</v>
       </c>
       <c r="DX25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DY25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DZ25" s="180">
         <v>11</v>
@@ -31174,16 +30928,16 @@
         <v>1.2235817575083401</v>
       </c>
       <c r="EF25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ25" s="180">
         <v>0</v>
@@ -31192,33 +30946,27 @@
         <v>0</v>
       </c>
       <c r="EL25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO25" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP25" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ25" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER25" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES25" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:149">
+    <row r="26" spans="1:147">
       <c r="A26" s="183" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" s="89">
         <v>830</v>
@@ -31239,16 +30987,16 @@
         <v>0</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I26" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J26" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K26" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L26" s="78">
         <v>4</v>
@@ -31323,28 +31071,28 @@
         <v>1.2048192771084301</v>
       </c>
       <c r="AJ26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR26" s="78">
         <v>0</v>
@@ -31359,10 +31107,10 @@
         <v>0</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX26" s="78">
         <v>6</v>
@@ -31371,10 +31119,10 @@
         <v>0.72289156626506001</v>
       </c>
       <c r="AZ26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB26" s="78">
         <v>0</v>
@@ -31383,22 +31131,22 @@
         <v>0</v>
       </c>
       <c r="BD26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG26" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI26" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ26" s="78">
         <v>5</v>
@@ -31407,10 +31155,10 @@
         <v>0.60240963855422003</v>
       </c>
       <c r="BL26" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM26" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN26" s="78">
         <v>4</v>
@@ -31551,10 +31299,10 @@
         <v>1.32530120481928</v>
       </c>
       <c r="DH26" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DI26" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DJ26" s="180">
         <v>16</v>
@@ -31635,10 +31383,10 @@
         <v>0</v>
       </c>
       <c r="EJ26" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK26" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL26" s="180">
         <v>0</v>
@@ -31658,16 +31406,10 @@
       <c r="EQ26" s="179">
         <v>0</v>
       </c>
-      <c r="ER26" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES26" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:149">
+    <row r="27" spans="1:147">
       <c r="A27" s="183" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B27" s="89">
         <v>822</v>
@@ -31676,10 +31418,10 @@
         <v>1.44677555618136</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E27" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F27" s="83">
         <v>6</v>
@@ -31688,10 +31430,10 @@
         <v>0.72992700729926996</v>
       </c>
       <c r="H27" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I27" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J27" s="83">
         <v>10</v>
@@ -31730,16 +31472,16 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="V27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X27" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z27" s="98">
         <v>4</v>
@@ -31748,10 +31490,10 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="AB27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD27" s="98">
         <v>6</v>
@@ -31784,58 +31526,58 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="AN27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AQ27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AR27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE27" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF27" s="98">
         <v>0</v>
@@ -31844,16 +31586,16 @@
         <v>0</v>
       </c>
       <c r="BH27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI27" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK27" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL27" s="98">
         <v>0</v>
@@ -31862,22 +31604,22 @@
         <v>0</v>
       </c>
       <c r="BN27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO27" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ27" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR27" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS27" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT27" s="98">
         <v>10</v>
@@ -31952,10 +31694,10 @@
         <v>2.06812652068127</v>
       </c>
       <c r="CR27" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CS27" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CT27" s="180">
         <v>12</v>
@@ -32072,28 +31814,28 @@
         <v>0.60827250608272998</v>
       </c>
       <c r="EF27" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG27" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH27" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI27" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ27" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK27" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL27" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EM27" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN27" s="180">
         <v>0</v>
@@ -32107,16 +31849,10 @@
       <c r="EQ27" s="179">
         <v>0</v>
       </c>
-      <c r="ER27" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES27" s="179">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:149">
+    <row r="28" spans="1:147">
       <c r="A28" s="183" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B28" s="89">
         <v>666</v>
@@ -32137,10 +31873,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I28" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J28" s="78">
         <v>4</v>
@@ -32149,28 +31885,28 @@
         <v>0.60060060060060005</v>
       </c>
       <c r="L28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M28" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O28" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R28" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S28" s="189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T28" s="82">
         <v>5</v>
@@ -32179,10 +31915,10 @@
         <v>0.75075075075075004</v>
       </c>
       <c r="V28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="X28" s="82">
         <v>0</v>
@@ -32233,10 +31969,10 @@
         <v>0.60060060060060005</v>
       </c>
       <c r="AN28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP28" s="82">
         <v>4</v>
@@ -32257,10 +31993,10 @@
         <v>0.60060060060060005</v>
       </c>
       <c r="AV28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX28" s="82">
         <v>5</v>
@@ -32269,34 +32005,34 @@
         <v>0.75075075075075004</v>
       </c>
       <c r="AZ28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG28" s="175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI28" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ28" s="82">
         <v>4</v>
@@ -32305,10 +32041,10 @@
         <v>0.60060060060060005</v>
       </c>
       <c r="BL28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM28" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN28" s="82">
         <v>5</v>
@@ -32317,16 +32053,16 @@
         <v>0.75075075075075004</v>
       </c>
       <c r="BP28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BQ28" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BR28" s="82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS28" s="174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT28" s="82">
         <v>7</v>
@@ -32527,16 +32263,16 @@
         <v>0.60060060060060005</v>
       </c>
       <c r="EH28" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI28" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ28" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK28" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL28" s="180">
         <v>0</v>
@@ -32545,27 +32281,21 @@
         <v>0</v>
       </c>
       <c r="EN28" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EO28" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP28" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EQ28" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER28" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES28" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:149">
+    <row r="29" spans="1:147">
       <c r="A29" s="183" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B29" s="89">
         <v>420</v>
@@ -32580,16 +32310,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G29" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H29" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I29" s="188" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J29" s="83">
         <v>5</v>
@@ -32652,22 +32382,22 @@
         <v>2.1428571428571401</v>
       </c>
       <c r="AD29" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF29" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH29" s="83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AI29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AJ29" s="83">
         <v>12</v>
@@ -32676,16 +32406,16 @@
         <v>2.8571428571428599</v>
       </c>
       <c r="AL29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AP29" s="98">
         <v>5</v>
@@ -32700,10 +32430,10 @@
         <v>0</v>
       </c>
       <c r="AT29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AV29" s="98">
         <v>0</v>
@@ -32712,28 +32442,28 @@
         <v>0</v>
       </c>
       <c r="AX29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE29" s="172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF29" s="98">
         <v>0</v>
@@ -32742,28 +32472,28 @@
         <v>0</v>
       </c>
       <c r="BH29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BI29" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BJ29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BK29" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BL29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM29" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO29" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP29" s="98">
         <v>0</v>
@@ -32772,22 +32502,22 @@
         <v>0</v>
       </c>
       <c r="BR29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS29" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU29" s="171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV29" s="98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BW29" s="170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BX29" s="98">
         <v>4</v>
@@ -32856,28 +32586,28 @@
         <v>1.90476190476191</v>
       </c>
       <c r="CT29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CU29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CV29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CW29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CX29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CZ29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DA29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DB29" s="180">
         <v>10</v>
@@ -32910,10 +32640,10 @@
         <v>2.1428571428571401</v>
       </c>
       <c r="DL29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DM29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DN29" s="180">
         <v>16</v>
@@ -32922,10 +32652,10 @@
         <v>3.8095238095238102</v>
       </c>
       <c r="DP29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DQ29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DR29" s="180">
         <v>16</v>
@@ -32934,10 +32664,10 @@
         <v>3.8095238095238102</v>
       </c>
       <c r="DT29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DU29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DV29" s="180">
         <v>13</v>
@@ -32946,46 +32676,46 @@
         <v>3.0952380952380998</v>
       </c>
       <c r="DX29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DY29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DZ29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EA29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EB29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ29" s="180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EK29" s="179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EL29" s="180">
         <v>0</v>
@@ -33000,21 +32730,15 @@
         <v>0</v>
       </c>
       <c r="EP29" s="180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EQ29" s="179" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER29" s="180">
-        <v>0</v>
-      </c>
-      <c r="ES29" s="179">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:149" ht="14.25" thickBot="1">
+    <row r="30" spans="1:147" ht="14.25" thickBot="1">
       <c r="A30" s="183" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B30" s="89">
         <v>224</v>
@@ -33041,10 +32765,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K30" s="190" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L30" s="85">
         <v>0</v>
@@ -33059,16 +32783,16 @@
         <v>0</v>
       </c>
       <c r="P30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="190" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S30" s="190" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T30" s="85">
         <v>4</v>
@@ -33083,10 +32807,10 @@
         <v>0</v>
       </c>
       <c r="X30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Y30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z30" s="85">
         <v>0</v>
@@ -33095,40 +32819,40 @@
         <v>0</v>
       </c>
       <c r="AB30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AF30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AH30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AI30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AJ30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AM30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN30" s="85">
         <v>0</v>
@@ -33143,10 +32867,10 @@
         <v>0</v>
       </c>
       <c r="AR30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AS30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AT30" s="85">
         <v>0</v>
@@ -33155,40 +32879,40 @@
         <v>0</v>
       </c>
       <c r="AV30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AW30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AX30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AY30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BA30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BB30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BC30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BD30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BE30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BF30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BG30" s="169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BH30" s="85">
         <v>0</v>
@@ -33203,16 +32927,16 @@
         <v>0</v>
       </c>
       <c r="BL30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BM30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BN30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BO30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BP30" s="85">
         <v>0</v>
@@ -33221,16 +32945,16 @@
         <v>0</v>
       </c>
       <c r="BR30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BS30" s="168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BT30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BU30" s="168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="BV30" s="85">
         <v>16</v>
@@ -33299,16 +33023,16 @@
         <v>2.2321428571428599</v>
       </c>
       <c r="CR30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CS30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CT30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CU30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CV30" s="85">
         <v>7</v>
@@ -33317,16 +33041,16 @@
         <v>3.125</v>
       </c>
       <c r="CX30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="CY30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CZ30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DA30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DB30" s="85">
         <v>0</v>
@@ -33347,10 +33071,10 @@
         <v>1.78571428571429</v>
       </c>
       <c r="DH30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DI30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DJ30" s="85">
         <v>5</v>
@@ -33359,10 +33083,10 @@
         <v>2.2321428571428599</v>
       </c>
       <c r="DL30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DM30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DN30" s="85">
         <v>7</v>
@@ -33371,10 +33095,10 @@
         <v>3.125</v>
       </c>
       <c r="DP30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DQ30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DR30" s="85">
         <v>7</v>
@@ -33383,10 +33107,10 @@
         <v>3.125</v>
       </c>
       <c r="DT30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DU30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DV30" s="85">
         <v>8</v>
@@ -33395,40 +33119,40 @@
         <v>3.5714285714285698</v>
       </c>
       <c r="DX30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="DY30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="DZ30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EA30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EB30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EC30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="ED30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EE30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EF30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EG30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EH30" s="85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="EI30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EJ30" s="85">
         <v>0</v>
@@ -33437,31 +33161,25 @@
         <v>0</v>
       </c>
       <c r="EL30" s="85" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EM30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EN30" s="85" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EO30" s="167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="EP30" s="85" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="EQ30" s="167" t="s">
-        <v>331</v>
-      </c>
-      <c r="ER30" s="85">
-        <v>0</v>
-      </c>
-      <c r="ES30" s="167">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:149" ht="15.75" customHeight="1" thickTop="1">
+    <row r="31" spans="1:147" ht="15.75" customHeight="1" thickTop="1">
       <c r="A31" s="67" t="s">
         <v>173</v>
       </c>
@@ -33477,7 +33195,7 @@
       <c r="BC31" s="166"/>
       <c r="BD31" s="148"/>
     </row>
-    <row r="32" spans="1:149">
+    <row r="32" spans="1:147">
       <c r="A32" s="48" t="s">
         <v>161</v>
       </c>
@@ -33545,22 +33263,55 @@
       <c r="A36" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="ER6:ES6"/>
-    <mergeCell ref="DJ5:ER5"/>
-    <mergeCell ref="EH6:EI6"/>
-    <mergeCell ref="EJ6:EK6"/>
-    <mergeCell ref="EL6:EM6"/>
-    <mergeCell ref="EN6:EO6"/>
-    <mergeCell ref="EP6:EQ6"/>
-    <mergeCell ref="DX6:DY6"/>
-    <mergeCell ref="DZ6:EA6"/>
-    <mergeCell ref="EB6:EC6"/>
-    <mergeCell ref="ED6:EE6"/>
-    <mergeCell ref="EF6:EG6"/>
-    <mergeCell ref="DR6:DS6"/>
-    <mergeCell ref="DT6:DU6"/>
-    <mergeCell ref="DV6:DW6"/>
+  <mergeCells count="78">
+    <mergeCell ref="CZ6:DA6"/>
+    <mergeCell ref="DL6:DM6"/>
+    <mergeCell ref="DN6:DO6"/>
+    <mergeCell ref="DP6:DQ6"/>
+    <mergeCell ref="DB6:DC6"/>
+    <mergeCell ref="DD6:DE6"/>
+    <mergeCell ref="DF6:DG6"/>
+    <mergeCell ref="DH6:DI6"/>
+    <mergeCell ref="DJ6:DK6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D5:BA5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="BV6:BW6"/>
     <mergeCell ref="CN6:CO6"/>
     <mergeCell ref="CX6:CY6"/>
@@ -33577,54 +33328,20 @@
     <mergeCell ref="CF6:CG6"/>
     <mergeCell ref="CH6:CI6"/>
     <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D5:BA5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="CZ6:DA6"/>
-    <mergeCell ref="DL6:DM6"/>
-    <mergeCell ref="DN6:DO6"/>
-    <mergeCell ref="DP6:DQ6"/>
-    <mergeCell ref="DB6:DC6"/>
-    <mergeCell ref="DD6:DE6"/>
-    <mergeCell ref="DF6:DG6"/>
-    <mergeCell ref="DH6:DI6"/>
-    <mergeCell ref="DJ6:DK6"/>
+    <mergeCell ref="EH6:EI6"/>
+    <mergeCell ref="EJ6:EK6"/>
+    <mergeCell ref="EL6:EM6"/>
+    <mergeCell ref="EN6:EO6"/>
+    <mergeCell ref="EP6:EQ6"/>
+    <mergeCell ref="DX6:DY6"/>
+    <mergeCell ref="DZ6:EA6"/>
+    <mergeCell ref="EB6:EC6"/>
+    <mergeCell ref="ED6:EE6"/>
+    <mergeCell ref="EF6:EG6"/>
+    <mergeCell ref="DR6:DS6"/>
+    <mergeCell ref="DT6:DU6"/>
+    <mergeCell ref="DV6:DW6"/>
+    <mergeCell ref="DJ5:EQ5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33642,6 +33359,44 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -33974,44 +33729,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
@@ -34021,6 +33738,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34037,21 +33771,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>